--- a/5 sem/Анализ Алгоритмов/Лаб_2/Graphs.xlsx
+++ b/5 sem/Анализ Алгоритмов/Лаб_2/Graphs.xlsx
@@ -404,11 +404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71252224"/>
-        <c:axId val="71256320"/>
+        <c:axId val="231920384"/>
+        <c:axId val="231921920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71252224"/>
+        <c:axId val="231920384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71256320"/>
+        <c:crossAx val="231921920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -426,7 +426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71256320"/>
+        <c:axId val="231921920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71252224"/>
+        <c:crossAx val="231920384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -475,19 +475,9 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.718285214348206E-2"/>
-          <c:y val="6.0659813356663747E-2"/>
-          <c:w val="0.53751159230096235"/>
-          <c:h val="0.78278032954214061"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -790,11 +780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166413056"/>
-        <c:axId val="166414592"/>
+        <c:axId val="169565184"/>
+        <c:axId val="169575168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166413056"/>
+        <c:axId val="169565184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166414592"/>
+        <c:crossAx val="169575168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -812,7 +802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166414592"/>
+        <c:axId val="169575168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166413056"/>
+        <c:crossAx val="169565184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -834,7 +824,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -880,19 +870,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1200,7 +1190,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
